--- a/v3/table/ErrorID.xlsx
+++ b/v3/table/ErrorID.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14">
   <si>
     <t>字段名</t>
   </si>
@@ -44,6 +44,18 @@
   </si>
   <si>
     <t>表头字段未定义</t>
+  </si>
+  <si>
+    <t>DuplicateHeaderField</t>
+  </si>
+  <si>
+    <t>表头字段重复</t>
+  </si>
+  <si>
+    <t>DuplicateKVField</t>
+  </si>
+  <si>
+    <t>键值表字段重复</t>
   </si>
 </sst>
 </file>
@@ -51,10 +63,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -77,9 +89,75 @@
       <charset val="134"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -93,21 +171,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -115,23 +203,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -139,7 +213,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -147,75 +228,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,187 +248,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -454,6 +466,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -484,6 +505,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -509,39 +554,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -550,10 +562,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -562,145 +574,142 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1027,7 +1036,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1062,7 +1071,7 @@
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -1077,10 +1086,9 @@
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3"/>
       <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
@@ -1090,20 +1098,32 @@
       <c r="H3" s="2"/>
     </row>
     <row r="4" ht="16.5" spans="1:8">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
+      <c r="A4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
+      <c r="D4" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
     <row r="5" ht="16.5" spans="1:8">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
+      <c r="A5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
+      <c r="D5" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>

--- a/v3/table/ErrorID.xlsx
+++ b/v3/table/ErrorID.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="15420"/>
+    <workbookView yWindow="8850" windowWidth="9210" windowHeight="6570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16">
   <si>
     <t>字段名</t>
   </si>
@@ -56,6 +56,12 @@
   </si>
   <si>
     <t>键值表字段重复</t>
+  </si>
+  <si>
+    <t>UnknownFieldType</t>
+  </si>
+  <si>
+    <t>未知字段类型</t>
   </si>
 </sst>
 </file>
@@ -63,10 +69,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -89,6 +95,50 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -97,21 +147,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -119,24 +177,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -149,85 +202,38 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -248,19 +254,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -272,61 +326,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -338,97 +434,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -460,62 +466,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -525,6 +477,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -554,6 +515,51 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -562,10 +568,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -574,133 +580,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1036,7 +1042,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1130,10 +1136,16 @@
       <c r="H5" s="2"/>
     </row>
     <row r="6" ht="16.5" spans="1:8">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
+      <c r="A6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
+      <c r="D6" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>

--- a/v3/table/ErrorID.xlsx
+++ b/v3/table/ErrorID.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView yWindow="8850" windowWidth="9210" windowHeight="6570"/>
+    <workbookView windowWidth="28080" windowHeight="15000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
   <si>
     <t>字段名</t>
   </si>
@@ -62,6 +62,18 @@
   </si>
   <si>
     <t>未知字段类型</t>
+  </si>
+  <si>
+    <t>DuplicateTypeFieldName</t>
+  </si>
+  <si>
+    <t>类型表字段重复</t>
+  </si>
+  <si>
+    <t>EnumValueEmpty</t>
+  </si>
+  <si>
+    <t>枚举值空</t>
   </si>
 </sst>
 </file>
@@ -69,9 +81,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -95,6 +107,44 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -103,7 +153,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -116,26 +166,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -147,52 +204,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -201,39 +212,40 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -254,181 +266,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -459,74 +471,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -560,6 +504,74 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -568,145 +580,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1042,7 +1054,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1152,20 +1164,32 @@
       <c r="H6" s="2"/>
     </row>
     <row r="7" ht="16.5" spans="1:8">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
+      <c r="A7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
+      <c r="D7" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
     <row r="8" ht="16.5" spans="1:8">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
+      <c r="A8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>

--- a/v3/table/ErrorID.xlsx
+++ b/v3/table/ErrorID.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
   <si>
     <t>字段名</t>
   </si>
@@ -74,6 +74,15 @@
   </si>
   <si>
     <t>枚举值空</t>
+  </si>
+  <si>
+    <t>DuplicateEnumValue</t>
+  </si>
+  <si>
+    <t>枚举值重复</t>
+  </si>
+  <si>
+    <t>枚举值需要手动指定</t>
   </si>
 </sst>
 </file>
@@ -1054,7 +1063,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1196,13 +1205,21 @@
       <c r="H8" s="2"/>
     </row>
     <row r="9" ht="16.5" spans="1:8">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
+      <c r="A9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
+      <c r="D9" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
+      <c r="G9" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="H9" s="2"/>
     </row>
     <row r="10" ht="16.5" spans="1:6">
